--- a/data/question_bank.xlsx
+++ b/data/question_bank.xlsx
@@ -1,27 +1,380 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01-jag\work\PJExamBuddy\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992FDDFE-DC16-4B07-BDC1-2F3A60E5D10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
+  <si>
+    <t>QuestionID</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>SubTopic</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>QuestionText</t>
+  </si>
+  <si>
+    <t>OptionA</t>
+  </si>
+  <si>
+    <t>OptionB</t>
+  </si>
+  <si>
+    <t>OptionC</t>
+  </si>
+  <si>
+    <t>OptionD</t>
+  </si>
+  <si>
+    <t>CorrectOptions</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ImagePath</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>SAT2025Q001</t>
+  </si>
+  <si>
+    <t>SAT2025Q002</t>
+  </si>
+  <si>
+    <t>SAT2025Q003</t>
+  </si>
+  <si>
+    <t>SAT2025Q004</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Grammar</t>
+  </si>
+  <si>
+    <t>Reading Comprehension</t>
+  </si>
+  <si>
+    <t>Linear Equations</t>
+  </si>
+  <si>
+    <t>Circles</t>
+  </si>
+  <si>
+    <t>Subject-Verb Agreement</t>
+  </si>
+  <si>
+    <t>Inference</t>
+  </si>
+  <si>
+    <t>MCQ-Single</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Solve for \( x \): \( 2x + 3 = 7 \)</t>
+  </si>
+  <si>
+    <t>What is the area of a circle with radius 5?</t>
+  </si>
+  <si>
+    <t>Neither of the boys ___ going to the party.</t>
+  </si>
+  <si>
+    <t>From the passage, it can be inferred that the narrator feels ___ about the situation.</t>
+  </si>
+  <si>
+    <t>x = 2</t>
+  </si>
+  <si>
+    <t>25\( \pi \)</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>x = 3</t>
+  </si>
+  <si>
+    <t>10\( \pi \)</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>indifferent</t>
+  </si>
+  <si>
+    <t>x = 4</t>
+  </si>
+  <si>
+    <t>5\( \pi \)</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>x = 5</t>
+  </si>
+  <si>
+    <t>100\( \pi \)</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>hopeful</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Subtract 3 and divide by 2: \( x = (7-3)/2 = 2 \)</t>
+  </si>
+  <si>
+    <t>Area = \( \pi r^2 = \pi(5^2) = 25\pi \)</t>
+  </si>
+  <si>
+    <t>'Neither' is singular, so the correct verb is 'is'.</t>
+  </si>
+  <si>
+    <t>The narrator's uncertain tone suggests confusion.</t>
+  </si>
+  <si>
+    <t>Isolate the variable</t>
+  </si>
+  <si>
+    <t>Use formula \( \pi r^2 \)</t>
+  </si>
+  <si>
+    <t>Singular vs plural subject</t>
+  </si>
+  <si>
+    <t>Look for tone words</t>
+  </si>
+  <si>
+    <t>algebra,linear equations</t>
+  </si>
+  <si>
+    <t>geometry,circles,area</t>
+  </si>
+  <si>
+    <t>grammar,subject-verb agreement</t>
+  </si>
+  <si>
+    <t>reading,inference,tone</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>GPT</t>
+  </si>
+  <si>
+    <t>SAT002</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>The radius of a circle is doubled. By what factor does the area increase?</t>
+  </si>
+  <si>
+    <t>Area ∝ r2r^2r2, so doubling radius increases area by 22=42^2 = 422=4.</t>
+  </si>
+  <si>
+    <t>Remember the formula for circle area</t>
+  </si>
+  <si>
+    <t>area, geometry, circle</t>
+  </si>
+  <si>
+    <t>SAT003</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Comprehension</t>
+  </si>
+  <si>
+    <t>Vocab-in-context</t>
+  </si>
+  <si>
+    <t>In the context of the passage, the word “elusive” most nearly means:</t>
+  </si>
+  <si>
+    <t>obvious</t>
+  </si>
+  <si>
+    <t>mysterious</t>
+  </si>
+  <si>
+    <t>insignificant</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>"Elusive" often implies hard to find or understand, similar to "mysterious" in this context.</t>
+  </si>
+  <si>
+    <t>Think about how the word is used in text</t>
+  </si>
+  <si>
+    <t>vocabulary, inference, context</t>
+  </si>
+  <si>
+    <t>SAT004</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Verb Tense</t>
+  </si>
+  <si>
+    <t>She __ to the store before it closed.</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>had gone</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Past perfect is needed for an action completed before another past action.</t>
+  </si>
+  <si>
+    <t>Identify the sequence of past actions</t>
+  </si>
+  <si>
+    <t>grammar, tense, sequence</t>
+  </si>
+  <si>
+    <t>SAT005</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>A data set has a mean of 80 and standard deviation of 5. What is the z-score of 90?</t>
+  </si>
+  <si>
+    <t>z=(90−80)5=2z = \frac{(90 - 80)}{5} = 2z=5(90−80)​=2</t>
+  </si>
+  <si>
+    <t>Use z-score formula</t>
+  </si>
+  <si>
+    <t>statistics, mean, standard deviation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +398,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,9 +440,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -79,44 +450,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -146,12 +517,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -181,7 +552,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -190,153 +561,699 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1.5</v>
+      </c>
+      <c r="L9">
+        <v>-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;L_x000D_&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022B C2 - Restricted use </oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{c5e6e129-f928-4a05-ae32-d838f6b21bdd}" enabled="1" method="Standard" siteId="{8b87af7d-8647-4dc7-8df4-5f69a2011bb5}" contentBits="3" removed="0"/>
+</clbl:labelList>
 </file>